--- a/public/forms/pois.xlsx
+++ b/public/forms/pois.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
   <si>
     <t>type</t>
   </si>
@@ -560,6 +560,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -650,17 +651,17 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="C75:C80 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.12755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,14 +782,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C75:C80 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,16 +821,16 @@
   </sheetPr>
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.12755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,6 +1571,9 @@
       <c r="B75" s="0" t="s">
         <v>150</v>
       </c>
+      <c r="C75" s="0" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -1579,6 +1582,9 @@
       <c r="B76" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="C76" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -1587,6 +1593,9 @@
       <c r="B77" s="0" t="s">
         <v>152</v>
       </c>
+      <c r="C77" s="0" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -1595,12 +1604,18 @@
       <c r="B79" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="C79" s="0" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1678,14 +1693,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C75:C80 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.24489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.12755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
